--- a/Linux_Commands.xlsx
+++ b/Linux_Commands.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>cd</t>
   </si>
@@ -214,6 +214,36 @@
   </si>
   <si>
     <t>to know the host name</t>
+  </si>
+  <si>
+    <t>Soft and hard Links</t>
+  </si>
+  <si>
+    <t>inode</t>
+  </si>
+  <si>
+    <t>Pointer or number of file on the hard disk</t>
+  </si>
+  <si>
+    <t>Soft Link</t>
+  </si>
+  <si>
+    <t>Link will be removed if file is removed or renamed</t>
+  </si>
+  <si>
+    <t>Hard Link</t>
+  </si>
+  <si>
+    <t>Deleting renaming or moving the original file will not affect the hard link</t>
+  </si>
+  <si>
+    <t>ln -s</t>
+  </si>
+  <si>
+    <t>ln</t>
+  </si>
+  <si>
+    <t>navigate to the path ln -s &lt;path of the file&gt;</t>
   </si>
 </sst>
 </file>
@@ -598,17 +628,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
-    <col min="4" max="4" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
@@ -1064,48 +1094,64 @@
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="5">
-        <v>28</v>
-      </c>
+      <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
+      <c r="D45" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="5">
-        <v>29</v>
-      </c>
-      <c r="B46" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="5"/>
+      <c r="D46" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="5">
-        <v>30</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="5">
-        <v>31</v>
-      </c>
+      <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="5"/>
+      <c r="D48" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="5">
-        <v>32</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -1113,7 +1159,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="5">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -1121,7 +1167,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="5">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -1129,7 +1175,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="5">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1137,7 +1183,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="5">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -1145,7 +1191,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="5">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -1153,7 +1199,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="5">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -1161,7 +1207,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1169,7 +1215,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="5">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1177,7 +1223,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="5">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -1185,6 +1231,22 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="5">
+        <v>41</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="5">
+        <v>42</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="5">
         <v>43</v>
       </c>
     </row>

--- a/Linux_Commands.xlsx
+++ b/Linux_Commands.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="109">
   <si>
     <t>cd</t>
   </si>
@@ -244,6 +244,105 @@
   </si>
   <si>
     <t>navigate to the path ln -s &lt;path of the file&gt;</t>
+  </si>
+  <si>
+    <t>Entring text into file</t>
+  </si>
+  <si>
+    <t>echo</t>
+  </si>
+  <si>
+    <t>echo "&lt;text&gt;" &gt;  &lt;FileName&gt;</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>cat &lt;FileName&gt;</t>
+  </si>
+  <si>
+    <t>to view the file</t>
+  </si>
+  <si>
+    <t>to enter the text into the file</t>
+  </si>
+  <si>
+    <t>navigate to the path ln &lt;path of the file&gt;</t>
+  </si>
+  <si>
+    <t>ls -ltri</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>manual commands</t>
+  </si>
+  <si>
+    <t>File details</t>
+  </si>
+  <si>
+    <t>rwxrwxrwx</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>execute</t>
+  </si>
+  <si>
+    <t>1st 3 belongs to</t>
+  </si>
+  <si>
+    <t>2nd 3 belongs to</t>
+  </si>
+  <si>
+    <t>3rd 3 belongs to</t>
+  </si>
+  <si>
+    <t>user -&gt; yourself</t>
+  </si>
+  <si>
+    <t>group -&gt; can be people in the same project</t>
+  </si>
+  <si>
+    <t>other -&gt; everyone on the system</t>
+  </si>
+  <si>
+    <t>chmod</t>
+  </si>
+  <si>
+    <t>to change the permission</t>
+  </si>
+  <si>
+    <t>chmod g-w &lt;FileName&gt;</t>
+  </si>
+  <si>
+    <t>chmod a-r &lt;FileName&gt;</t>
+  </si>
+  <si>
+    <t>chmod o+r&lt;FileName&gt;</t>
+  </si>
+  <si>
+    <t>to add read permission from group</t>
+  </si>
+  <si>
+    <t>to remove read permission from all</t>
+  </si>
+  <si>
+    <t>to remove write permission from group</t>
   </si>
 </sst>
 </file>
@@ -628,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1114,140 +1213,121 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="5">
+      <c r="A47" s="5"/>
+      <c r="B47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="5">
         <v>29</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="5"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="5" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="5">
-        <v>30</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="5">
-        <v>31</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="5">
-        <v>32</v>
-      </c>
+      <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="5"/>
+      <c r="D51" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="5">
-        <v>33</v>
-      </c>
+      <c r="A52" s="5"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="5">
-        <v>34</v>
-      </c>
+      <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="5"/>
+      <c r="D53" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="5">
-        <v>35</v>
-      </c>
-      <c r="B54" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="5"/>
+      <c r="D54" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="5">
-        <v>36</v>
-      </c>
+      <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="5"/>
+      <c r="D55" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="5">
-        <v>37</v>
-      </c>
-      <c r="B56" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="5"/>
+      <c r="D56" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="5">
-        <v>38</v>
-      </c>
+      <c r="A57" s="5"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="5"/>
+      <c r="D57" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="5">
-        <v>39</v>
-      </c>
-      <c r="B58" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="C58" s="4"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="5">
-        <v>40</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="5">
-        <v>41</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="5">
-        <v>42</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="5">
-        <v>43</v>
+      <c r="D58" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1258,13 +1338,217 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Linux_Commands.xlsx
+++ b/Linux_Commands.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Basic Commands" sheetId="1" r:id="rId1"/>
+    <sheet name="Chmod" sheetId="2" r:id="rId2"/>
+    <sheet name="Adding text" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="194">
   <si>
     <t>cd</t>
   </si>
@@ -343,6 +343,261 @@
   </si>
   <si>
     <t>to remove write permission from group</t>
+  </si>
+  <si>
+    <t>echo "Text" &gt; file name</t>
+  </si>
+  <si>
+    <t>It will add new text to the file</t>
+  </si>
+  <si>
+    <t>echo "Text" &gt;&gt; file name</t>
+  </si>
+  <si>
+    <t>It will update the file with new text</t>
+  </si>
+  <si>
+    <t>echo "Text"</t>
+  </si>
+  <si>
+    <t>It will return same text</t>
+  </si>
+  <si>
+    <t>it will read the text in the file</t>
+  </si>
+  <si>
+    <t>ls -ltr &gt; &lt;FileName&gt;</t>
+  </si>
+  <si>
+    <t>It will add results into the file directly</t>
+  </si>
+  <si>
+    <t>date &gt; &lt;FileName&gt;</t>
+  </si>
+  <si>
+    <t>ls -la</t>
+  </si>
+  <si>
+    <t>Displays hidden file</t>
+  </si>
+  <si>
+    <t>Using Echo</t>
+  </si>
+  <si>
+    <t>Using Tee command</t>
+  </si>
+  <si>
+    <t>echo "Text" | tee &lt;file name&gt;</t>
+  </si>
+  <si>
+    <t>echo "Text" | tee -a &lt;file name&gt;</t>
+  </si>
+  <si>
+    <t>wc</t>
+  </si>
+  <si>
+    <t>word count command -&gt; to get number for characters</t>
+  </si>
+  <si>
+    <t>"-c"</t>
+  </si>
+  <si>
+    <t>"-m"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> print the byte counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> print the character counts</t>
+  </si>
+  <si>
+    <t>"-l"</t>
+  </si>
+  <si>
+    <t>print the newline counts</t>
+  </si>
+  <si>
+    <t>command1 [arguments] | command2[argument]</t>
+  </si>
+  <si>
+    <t>Pipe</t>
+  </si>
+  <si>
+    <t>ex: ls -ltr | more</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>ex: ls -l | tail -1</t>
+  </si>
+  <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t>Last line of output</t>
+  </si>
+  <si>
+    <t>rm</t>
+  </si>
+  <si>
+    <t>remove the file</t>
+  </si>
+  <si>
+    <t>mv</t>
+  </si>
+  <si>
+    <t>rmdir or rm -r</t>
+  </si>
+  <si>
+    <t>remove the directory</t>
+  </si>
+  <si>
+    <t>chgrp</t>
+  </si>
+  <si>
+    <t>chown</t>
+  </si>
+  <si>
+    <t>Renaming of file</t>
+  </si>
+  <si>
+    <t>move the file from one place to another</t>
+  </si>
+  <si>
+    <t>rm -Rf</t>
+  </si>
+  <si>
+    <t>will forcefully remove sub-directories and its contents as well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chgrp root listofdir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chgrp &lt;user&gt; &lt;FileName&gt; </t>
+  </si>
+  <si>
+    <t>To change it to root user, need  to switch into root user only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chown &lt;user&gt; &lt;FileName&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chown root listofdir </t>
+  </si>
+  <si>
+    <t>Change owner and group at a time</t>
+  </si>
+  <si>
+    <t>chown &lt;userName&gt;:&lt;userName&gt; &lt;fileName&gt;</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>it will display list in page wise</t>
+  </si>
+  <si>
+    <t>it will show less line</t>
+  </si>
+  <si>
+    <t>it will show more lines</t>
+  </si>
+  <si>
+    <t>it will display list in first page and gives one new line</t>
+  </si>
+  <si>
+    <t>k or Up arrow key</t>
+  </si>
+  <si>
+    <t>j or down arrow key</t>
+  </si>
+  <si>
+    <t>First 2 lines in the file</t>
+  </si>
+  <si>
+    <t>head -2 &lt;fileName&gt;</t>
+  </si>
+  <si>
+    <t>tail -2 &lt;fileName&gt;</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>awk</t>
+  </si>
+  <si>
+    <t>grep or egrep</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>uniq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Print selected parts of lines from each FILE to standard output.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --characters=LIST                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select only these characters   </t>
+  </si>
+  <si>
+    <t>Ex: cut -c1 &lt;FileName&gt;</t>
+  </si>
+  <si>
+    <t>Provides first letter in the file</t>
+  </si>
+  <si>
+    <t>Ex: cut -c1,2,3 &lt;FileName&gt;</t>
+  </si>
+  <si>
+    <t>Provides 1, 2, 3 letters in the file</t>
+  </si>
+  <si>
+    <t>Ex: cut -c1-3 &lt;FileName&gt;</t>
+  </si>
+  <si>
+    <t>Ex: cut -c1-3,6-8 &lt;FileName&gt;</t>
+  </si>
+  <si>
+    <t>Provides specific range of characters in the file</t>
+  </si>
+  <si>
+    <t>Provides range of characters in the file</t>
+  </si>
+  <si>
+    <t>Ex: cut -b1-3 &lt;FileName&gt;</t>
+  </si>
+  <si>
+    <t>Ex: cut -d: -f 6 &lt;fileName&gt;</t>
+  </si>
+  <si>
+    <t>List by byte size</t>
+  </si>
+  <si>
+    <t>List first 6th column seperated by :</t>
+  </si>
+  <si>
+    <t>Ex: cut -d: -f 6-7 &lt;fileName&gt;</t>
+  </si>
+  <si>
+    <t>List first 6th and 7th column seperated by :</t>
+  </si>
+  <si>
+    <t>Ex: ls -l | cut -c2-4</t>
+  </si>
+  <si>
+    <t>Only print user permission of file/dir</t>
   </si>
 </sst>
 </file>
@@ -418,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -433,6 +688,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,16 +986,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -873,208 +1132,206 @@
     <row r="12" spans="1:4">
       <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5"/>
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5">
+        <v>16</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-    </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="5">
-        <v>17</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="A22" s="5"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="5">
+        <v>17</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="5">
-        <v>18</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="A24" s="5"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5">
+        <v>19</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5">
-        <v>20</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="5" t="s">
@@ -1082,70 +1339,76 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="5"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="5">
+        <v>23</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="C32" s="4"/>
       <c r="D32" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="5"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="5"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="5"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="5">
+    <row r="36" spans="1:4">
+      <c r="A36" s="5">
         <v>24</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="7" t="s">
+      <c r="C36" s="4"/>
+      <c r="D36" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="5"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="5"/>
-      <c r="B38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="6" t="s">
-        <v>55</v>
+      <c r="D38" s="5" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="5">
-        <v>25</v>
-      </c>
+      <c r="A39" s="5"/>
       <c r="B39" s="4" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="5" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1159,135 +1422,133 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="5">
-        <v>27</v>
-      </c>
+      <c r="A43" s="5"/>
       <c r="B43" s="4" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="5" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="5"/>
-      <c r="B44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="5"/>
+      <c r="D44" s="5" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="6" t="s">
-        <v>66</v>
+      <c r="D45" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="5">
-        <v>28</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="A46" s="5"/>
+      <c r="B46" s="4"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="5"/>
-      <c r="B47" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="B47" s="4"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="5"/>
+      <c r="D47" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="5">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C48" s="4"/>
       <c r="D48" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="5"/>
-      <c r="B49" s="4"/>
+      <c r="A49" s="5">
+        <v>27</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="C49" s="4"/>
       <c r="D49" s="5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="5">
-        <v>30</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>72</v>
-      </c>
+      <c r="A50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="5" t="s">
-        <v>83</v>
+      <c r="D51" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="5"/>
-      <c r="B52" s="4"/>
+      <c r="A52" s="5">
+        <v>28</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="5"/>
+      <c r="D52" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="5"/>
-      <c r="B53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="C53" s="4"/>
-      <c r="D53" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="5">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="D54" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1295,19 +1556,21 @@
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="5">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D56" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1315,20 +1578,402 @@
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="5">
+        <v>31</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="5"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="5">
+        <v>32</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="5"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="5">
+    <row r="64" spans="1:4">
+      <c r="A64" s="5"/>
+      <c r="B64" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="5"/>
+      <c r="B65" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="5"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="5"/>
+      <c r="B68" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="5"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="5"/>
+      <c r="B70" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="5"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="5"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="5">
         <v>33</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="5" t="s">
+      <c r="C73" s="4"/>
+      <c r="D73" s="5" t="s">
         <v>86</v>
       </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="5"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="5"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="5">
+        <v>35</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="5"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="5"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="5"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="5"/>
+      <c r="B80" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="5"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="5"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="5"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="5"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="5"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="5"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="5"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="5"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="5"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="5"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="5"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="9"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="5"/>
+      <c r="B92" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="5"/>
+      <c r="B93" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="5"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="5"/>
+      <c r="B94" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="5"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="5"/>
+      <c r="B95" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="5">
+        <v>34</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="5"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="5"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="5"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="5"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="5"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="5"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1338,18 +1983,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1529,22 +2174,80 @@
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="5">
+        <v>3</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1554,12 +2257,141 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Linux_Commands.xlsx
+++ b/Linux_Commands.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Basic Commands" sheetId="1" r:id="rId1"/>
     <sheet name="Chmod" sheetId="2" r:id="rId2"/>
     <sheet name="Adding text" sheetId="3" r:id="rId3"/>
+    <sheet name="Compress" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="293">
   <si>
     <t>cd</t>
   </si>
@@ -396,27 +397,6 @@
     <t>wc</t>
   </si>
   <si>
-    <t>word count command -&gt; to get number for characters</t>
-  </si>
-  <si>
-    <t>"-c"</t>
-  </si>
-  <si>
-    <t>"-m"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> print the byte counts</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> print the character counts</t>
-  </si>
-  <si>
-    <t>"-l"</t>
-  </si>
-  <si>
-    <t>print the newline counts</t>
-  </si>
-  <si>
     <t>command1 [arguments] | command2[argument]</t>
   </si>
   <si>
@@ -531,9 +511,6 @@
     <t>awk</t>
   </si>
   <si>
-    <t>grep or egrep</t>
-  </si>
-  <si>
     <t>sort</t>
   </si>
   <si>
@@ -598,6 +575,327 @@
   </si>
   <si>
     <t>Only print user permission of file/dir</t>
+  </si>
+  <si>
+    <t>awk --version</t>
+  </si>
+  <si>
+    <t>Filtering the data like columns</t>
+  </si>
+  <si>
+    <t>awk '{print $1}' &lt;FileName&gt;</t>
+  </si>
+  <si>
+    <t>ls -l | awk '{print $1,$3}'</t>
+  </si>
+  <si>
+    <t>version of awk command</t>
+  </si>
+  <si>
+    <t>List first column data from a file</t>
+  </si>
+  <si>
+    <t>list  1st and 3rd field of ls -l output</t>
+  </si>
+  <si>
+    <t>ls -l | awk '{print $NF}'</t>
+  </si>
+  <si>
+    <t>Last field of the out put</t>
+  </si>
+  <si>
+    <t>awk '/Jerry/ {print}' &lt;FileName&gt;</t>
+  </si>
+  <si>
+    <t>Search for a specific word</t>
+  </si>
+  <si>
+    <t>awk  -F: '{print $1}' /etc/passwd</t>
+  </si>
+  <si>
+    <t>output only 1st field of /etc/passwd</t>
+  </si>
+  <si>
+    <t>echo "Hello Tam" | awk '{$2="Adam"; print $0}'</t>
+  </si>
+  <si>
+    <t>Replace words field words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat &lt;FileName&gt; | awk '{$2="ankj"; print $0}'  </t>
+  </si>
+  <si>
+    <t>Replace 2 column words with ankj and print all columns($0)</t>
+  </si>
+  <si>
+    <t>awk 'length($0) &gt;15' file</t>
+  </si>
+  <si>
+    <t>Get the lines that have more than 15 byte size</t>
+  </si>
+  <si>
+    <t>ls -l | awk '{if($9 == "seinfield") print $0;}'</t>
+  </si>
+  <si>
+    <t>Get the field matching seinfield in /home/anupamakj</t>
+  </si>
+  <si>
+    <t>ls -l | awk '{print NF}'</t>
+  </si>
+  <si>
+    <t>Number of fields</t>
+  </si>
+  <si>
+    <t>Processes the text line by line and print any lines which matches a specified pattern</t>
+  </si>
+  <si>
+    <t>search for a key word from a file</t>
+  </si>
+  <si>
+    <t>grep keyWord file</t>
+  </si>
+  <si>
+    <t>grep -c keyWord file</t>
+  </si>
+  <si>
+    <t>search for a key word and count</t>
+  </si>
+  <si>
+    <t>grep -i keyWord file</t>
+  </si>
+  <si>
+    <t>search for a key word ignore case sensitive</t>
+  </si>
+  <si>
+    <t>grep -n keyWord file</t>
+  </si>
+  <si>
+    <t>grep -v keyWord file</t>
+  </si>
+  <si>
+    <t>Displays everything but keyword</t>
+  </si>
+  <si>
+    <t>Displays the matched lines and there line numbers</t>
+  </si>
+  <si>
+    <t>grep keyword file | awk '{print $1}'</t>
+  </si>
+  <si>
+    <t>Search for a keyword and then only give the 1st field</t>
+  </si>
+  <si>
+    <t>ls -l | grep Desktop</t>
+  </si>
+  <si>
+    <t>Get the field matching keyword in output</t>
+  </si>
+  <si>
+    <t>egrep</t>
+  </si>
+  <si>
+    <t>grep</t>
+  </si>
+  <si>
+    <t>egrep -I "keyword1|keyword2" file</t>
+  </si>
+  <si>
+    <t>Search for 2 key words</t>
+  </si>
+  <si>
+    <t>sort file</t>
+  </si>
+  <si>
+    <t>Sorts file in alphabet order</t>
+  </si>
+  <si>
+    <t>sort -r file</t>
+  </si>
+  <si>
+    <t>Sorts file in reverse alphabet order</t>
+  </si>
+  <si>
+    <t>sort -k2 file</t>
+  </si>
+  <si>
+    <t>sort by field number</t>
+  </si>
+  <si>
+    <t>uniq file</t>
+  </si>
+  <si>
+    <t>removes duplicates</t>
+  </si>
+  <si>
+    <t>sort file | uniq</t>
+  </si>
+  <si>
+    <t>Always sort before using uniq their line numbers</t>
+  </si>
+  <si>
+    <t>sort file | uniq -c</t>
+  </si>
+  <si>
+    <t>Sort file then uniq and list count</t>
+  </si>
+  <si>
+    <t>sort file | uniq -d</t>
+  </si>
+  <si>
+    <t>only show repeated lines</t>
+  </si>
+  <si>
+    <t>New line count, word cound and byte count</t>
+  </si>
+  <si>
+    <t>wc file</t>
+  </si>
+  <si>
+    <t>check the line count, word count and byte count</t>
+  </si>
+  <si>
+    <t>wc -l file</t>
+  </si>
+  <si>
+    <t>wc -w file</t>
+  </si>
+  <si>
+    <t>wc -c file</t>
+  </si>
+  <si>
+    <t>wc -m file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print the character counts    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">print the byte counts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">print the newline counts  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">print the word counts  </t>
+  </si>
+  <si>
+    <t>NOT Allowed</t>
+  </si>
+  <si>
+    <t>wc Directory</t>
+  </si>
+  <si>
+    <t>Number of files</t>
+  </si>
+  <si>
+    <t>ls -l | grep '^d' | wc -l</t>
+  </si>
+  <si>
+    <t>grep keyword | wc -l</t>
+  </si>
+  <si>
+    <t>number of keywords lines</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>diff file1 file2</t>
+  </si>
+  <si>
+    <t>line by line difference</t>
+  </si>
+  <si>
+    <t>cmp</t>
+  </si>
+  <si>
+    <t>cmp file1 file2</t>
+  </si>
+  <si>
+    <t>compare byte by byte</t>
+  </si>
+  <si>
+    <t>Ex: tar cvf anupamakj.tar .</t>
+  </si>
+  <si>
+    <t>tar cvf requiredFileName.tar .(all the files in the location)</t>
+  </si>
+  <si>
+    <t>tar xvf File.tar</t>
+  </si>
+  <si>
+    <t>ex: tar xvf anupama.tar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will compress all the files in that location </t>
+  </si>
+  <si>
+    <t>It will Uncompress the zip file</t>
+  </si>
+  <si>
+    <t>gzip fileName.tar</t>
+  </si>
+  <si>
+    <t>GZip the file to reduce the volume</t>
+  </si>
+  <si>
+    <t>gzip  fileName.tar</t>
+  </si>
+  <si>
+    <t>gzip -d or unzip</t>
+  </si>
+  <si>
+    <t>to unzip the compressed file</t>
+  </si>
+  <si>
+    <t>gzip -d fileName.tar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">force --&gt; ignore nonexistent files and arguments, never prompt                    </t>
+  </si>
+  <si>
+    <t>"-r", "-R"</t>
+  </si>
+  <si>
+    <t>recursive --&gt;  remove directories and their contents recursively</t>
+  </si>
+  <si>
+    <t>"-f"</t>
+  </si>
+  <si>
+    <t>"-d"</t>
+  </si>
+  <si>
+    <t>dir --&gt; remove empty directories</t>
+  </si>
+  <si>
+    <t>truncate</t>
+  </si>
+  <si>
+    <t>truncate -s 40 file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it will truncate or chop the content the file </t>
+  </si>
+  <si>
+    <t>combining of files</t>
+  </si>
+  <si>
+    <t>cat file1 file2 file3 &gt; file4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maultiple files can be combined into one </t>
+  </si>
+  <si>
+    <t>split</t>
+  </si>
+  <si>
+    <t>split file4</t>
+  </si>
+  <si>
+    <t>one file can be split into multiple files</t>
+  </si>
+  <si>
+    <t>split -l 300 file.text childfile</t>
   </si>
 </sst>
 </file>
@@ -673,7 +971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -691,6 +989,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,17 +1293,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
@@ -1006,7 +1313,7 @@
       <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1018,7 +1325,7 @@
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1030,7 +1337,7 @@
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1042,7 +1349,7 @@
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1054,7 +1361,7 @@
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1066,7 +1373,7 @@
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1078,7 +1385,7 @@
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1090,7 +1397,7 @@
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1102,7 +1409,7 @@
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
@@ -1114,7 +1421,7 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
@@ -1124,7 +1431,7 @@
       <c r="B11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="5" t="s">
         <v>51</v>
       </c>
@@ -1134,7 +1441,7 @@
       <c r="B12" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="5" t="s">
         <v>120</v>
       </c>
@@ -1144,7 +1451,7 @@
       <c r="B13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="5" t="s">
         <v>63</v>
       </c>
@@ -1154,7 +1461,7 @@
       <c r="B14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="5" t="s">
         <v>65</v>
       </c>
@@ -1164,7 +1471,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1176,7 +1483,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1188,7 +1495,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1200,7 +1507,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1212,7 +1519,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1224,7 +1531,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -1236,7 +1543,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="5" t="s">
@@ -1246,7 +1553,7 @@
     <row r="22" spans="1:4">
       <c r="A22" s="5"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4">
@@ -1256,13 +1563,13 @@
       <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="5"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4">
@@ -1272,7 +1579,7 @@
       <c r="B25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="5" t="s">
         <v>37</v>
       </c>
@@ -1284,7 +1591,7 @@
       <c r="B26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="5" t="s">
         <v>39</v>
       </c>
@@ -1292,12 +1599,12 @@
     <row r="27" spans="1:4">
       <c r="A27" s="5"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5"/>
-      <c r="C28" s="4"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="6" t="s">
         <v>40</v>
       </c>
@@ -1309,7 +1616,7 @@
       <c r="B29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="5" t="s">
         <v>42</v>
       </c>
@@ -1321,7 +1628,7 @@
       <c r="B30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="5" t="s">
         <v>44</v>
       </c>
@@ -1333,7 +1640,7 @@
       <c r="B31" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="5" t="s">
         <v>46</v>
       </c>
@@ -1345,7 +1652,7 @@
       <c r="B32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="5" t="s">
         <v>46</v>
       </c>
@@ -1353,7 +1660,7 @@
     <row r="33" spans="1:4">
       <c r="A33" s="5"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="5" t="s">
         <v>53</v>
       </c>
@@ -1361,13 +1668,13 @@
     <row r="34" spans="1:4">
       <c r="A34" s="5"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="5"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="6" t="s">
         <v>47</v>
       </c>
@@ -1379,14 +1686,14 @@
       <c r="B36" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="5" t="s">
         <v>54</v>
       </c>
@@ -1394,33 +1701,33 @@
     <row r="38" spans="1:4">
       <c r="A38" s="5"/>
       <c r="B38" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="C38" s="10"/>
       <c r="D38" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="5"/>
       <c r="B39" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="C39" s="10"/>
       <c r="D39" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="5"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="C40" s="10"/>
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="5"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="6" t="s">
         <v>55</v>
       </c>
@@ -1432,7 +1739,7 @@
       <c r="B42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="4"/>
+      <c r="C42" s="10"/>
       <c r="D42" s="5" t="s">
         <v>56</v>
       </c>
@@ -1440,540 +1747,1036 @@
     <row r="43" spans="1:4">
       <c r="A43" s="5"/>
       <c r="B43" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C43" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="C43" s="10"/>
       <c r="D43" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="5"/>
-      <c r="B44" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="10" t="s">
+        <v>280</v>
+      </c>
       <c r="D44" s="5" t="s">
-        <v>148</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="C45" s="10" t="s">
+        <v>278</v>
+      </c>
       <c r="D45" s="5" t="s">
-        <v>147</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="5"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="5"/>
+      <c r="C46" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="5">
-        <v>26</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="A48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="5">
-        <v>27</v>
-      </c>
+      <c r="A49" s="5"/>
       <c r="B49" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="C49" s="10"/>
       <c r="D49" s="5" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="5"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="5"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="5" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="5"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="5">
-        <v>28</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="5" t="s">
-        <v>68</v>
+      <c r="A52" s="5"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="5"/>
+      <c r="A53" s="5">
+        <v>26</v>
+      </c>
       <c r="B53" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="5">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C54" s="10"/>
       <c r="D54" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="5">
-        <v>30</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>72</v>
+      <c r="A56" s="5"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="5"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="A57" s="5">
+        <v>28</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="10"/>
       <c r="D57" s="5" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="5"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+      <c r="B58" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="10"/>
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="5"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="6" t="s">
-        <v>76</v>
+      <c r="A59" s="5">
+        <v>29</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="5">
-        <v>31</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="4"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="10"/>
       <c r="D60" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="5"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="A61" s="5">
+        <v>30</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="D61" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="5">
-        <v>32</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="4"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="10"/>
       <c r="D62" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="5"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="5"/>
-      <c r="B64" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="5" t="s">
-        <v>160</v>
+      <c r="B64" s="4"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="5"/>
+      <c r="A65" s="5">
+        <v>31</v>
+      </c>
       <c r="B65" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C65" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="C65" s="10"/>
       <c r="D65" s="5" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="5"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="4" t="s">
-        <v>164</v>
-      </c>
+      <c r="C66" s="10"/>
       <c r="D66" s="5" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="5"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4" t="s">
-        <v>165</v>
-      </c>
+      <c r="A67" s="5">
+        <v>32</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="10"/>
       <c r="D67" s="5" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="5"/>
-      <c r="B68" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="10"/>
       <c r="D68" s="5" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="5"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+      <c r="B69" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="10"/>
       <c r="D69" s="5" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="5"/>
       <c r="B70" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C70" s="4"/>
+        <v>152</v>
+      </c>
+      <c r="C70" s="10"/>
       <c r="D70" s="5" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="5"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
+      <c r="C71" s="10" t="s">
+        <v>157</v>
+      </c>
       <c r="D71" s="5" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="5"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="5"/>
+      <c r="C72" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="5">
-        <v>33</v>
-      </c>
+      <c r="A73" s="5"/>
       <c r="B73" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="C73" s="10"/>
       <c r="D73" s="5" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="5"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="5"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="5" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="5"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="5"/>
+      <c r="B75" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="5">
-        <v>35</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4" t="s">
-        <v>133</v>
+      <c r="A76" s="5"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="5"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="5" t="s">
-        <v>135</v>
-      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="5"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
+      <c r="A78" s="5">
+        <v>33</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="10"/>
       <c r="D78" s="5" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="5"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
+      <c r="C79" s="10"/>
       <c r="D79" s="5"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="5"/>
-      <c r="B80" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="5" t="s">
-        <v>174</v>
-      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="5"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="5"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>176</v>
+      <c r="A81" s="5">
+        <v>35</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" s="10"/>
+      <c r="D81" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="5"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="9" t="s">
-        <v>177</v>
+      <c r="C82" s="10"/>
+      <c r="D82" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="5"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>179</v>
+      <c r="C83" s="10"/>
+      <c r="D83" s="5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="5"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>181</v>
-      </c>
+      <c r="C84" s="10"/>
+      <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="5"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>185</v>
+      <c r="B85" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="10"/>
+      <c r="D85" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="5"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="4" t="s">
-        <v>183</v>
+      <c r="C86" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="5"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="4" t="s">
-        <v>186</v>
-      </c>
+      <c r="C87" s="10"/>
       <c r="D87" s="9" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="5"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="4" t="s">
-        <v>187</v>
+      <c r="C88" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="5"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="4" t="s">
-        <v>190</v>
+      <c r="C89" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="5"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="4" t="s">
-        <v>192</v>
+      <c r="C90" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="5"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="9"/>
+      <c r="C91" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="5"/>
-      <c r="B92" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="5"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="5"/>
-      <c r="B93" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="5"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="5"/>
-      <c r="B94" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="5"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="5"/>
-      <c r="B95" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="5"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="5">
-        <v>34</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="5" t="s">
-        <v>126</v>
-      </c>
+      <c r="A96" s="5"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="9"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="5"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4" t="s">
-        <v>127</v>
-      </c>
+      <c r="B97" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C97" s="10"/>
       <c r="D97" s="5" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="5"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="4" t="s">
-        <v>128</v>
+      <c r="C98" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="5"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="4" t="s">
-        <v>131</v>
+      <c r="C99" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="5"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="5"/>
+      <c r="C100" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="5"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="5"/>
+      <c r="C101" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="5"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="5"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="5"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="5"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="5"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="5"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="5"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="5"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="5"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="5"/>
+      <c r="B110" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="5"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="5"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="5"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="5"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="5"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="5"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="5"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="5"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="5"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="5"/>
+      <c r="B119" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="5"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="5"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="5"/>
+      <c r="B121" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="5"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="5"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="5"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="5"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="5"/>
+      <c r="B125" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="5"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="5"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="5"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="5"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="5"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="5"/>
+      <c r="B130" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="5"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="5"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="5"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="5"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="5"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="5"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="5"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="5"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="5"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="5"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="5"/>
+      <c r="B140" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="5"/>
+      <c r="B141" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="5"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="5"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="5"/>
+      <c r="B143" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="5"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="5"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="5"/>
+      <c r="B145" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="5"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="5"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="5"/>
+      <c r="B147" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="5"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D148" s="5"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="5"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="5"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="5"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="5"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="5"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="5"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="5"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="5"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="5"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="5"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="5"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="5"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="5"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2178,11 +2981,11 @@
         <v>3</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2190,7 +2993,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2198,17 +3001,17 @@
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2216,7 +3019,7 @@
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2224,7 +3027,7 @@
       <c r="B26" s="5"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2237,10 +3040,10 @@
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2394,4 +3197,75 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Linux_Commands.xlsx
+++ b/Linux_Commands.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Commands" sheetId="1" r:id="rId1"/>
     <sheet name="Chmod" sheetId="2" r:id="rId2"/>
     <sheet name="Adding text" sheetId="3" r:id="rId3"/>
     <sheet name="Compress" sheetId="4" r:id="rId4"/>
+    <sheet name="admin" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="400">
   <si>
     <t>cd</t>
   </si>
@@ -896,6 +897,327 @@
   </si>
   <si>
     <t>split -l 300 file.text childfile</t>
+  </si>
+  <si>
+    <t>vi command</t>
+  </si>
+  <si>
+    <t>It will allow user to edit</t>
+  </si>
+  <si>
+    <t>Shift+ZZ</t>
+  </si>
+  <si>
+    <t>it will save the file</t>
+  </si>
+  <si>
+    <t>esc and :wq!</t>
+  </si>
+  <si>
+    <t>will remove entire line</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>it will revert the deleted row or undo</t>
+  </si>
+  <si>
+    <t>it will delete each letter</t>
+  </si>
+  <si>
+    <t>it will replace each letter</t>
+  </si>
+  <si>
+    <t>insert or i</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>it will insert space and edit</t>
+  </si>
+  <si>
+    <t>it will create new line and edit</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>grep keyword file</t>
+  </si>
+  <si>
+    <t>It will serach for key word</t>
+  </si>
+  <si>
+    <t>/keyword enter in view mode</t>
+  </si>
+  <si>
+    <t>sed</t>
+  </si>
+  <si>
+    <t>substitute</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>for editing the multiple lines only on outputs</t>
+  </si>
+  <si>
+    <t>replace globally</t>
+  </si>
+  <si>
+    <t>sed 's/keyword/replaceword/g' file</t>
+  </si>
+  <si>
+    <t>for editing the multiple lines inside the file and save</t>
+  </si>
+  <si>
+    <t>sed -i 's/keyword/replaceword/g' file</t>
+  </si>
+  <si>
+    <t>sed '/keyword/d' file</t>
+  </si>
+  <si>
+    <t>it will delete the entire line with the key word</t>
+  </si>
+  <si>
+    <t>sed '/^$/d' file</t>
+  </si>
+  <si>
+    <t>it will deletes the empty lines</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>anything that starts</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>anything that ends</t>
+  </si>
+  <si>
+    <t>sed '1d'  file</t>
+  </si>
+  <si>
+    <t>to delete first line in a file</t>
+  </si>
+  <si>
+    <t>sed '1,2d'  file</t>
+  </si>
+  <si>
+    <t>to delete first 2 lines in a file</t>
+  </si>
+  <si>
+    <t>sed 's/\t/ /g' file</t>
+  </si>
+  <si>
+    <t>to replace tabs with space</t>
+  </si>
+  <si>
+    <t>\t</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>space replace</t>
+  </si>
+  <si>
+    <t>sed -n 12,18p file</t>
+  </si>
+  <si>
+    <t>to see lines from 12 to 18</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>lines</t>
+  </si>
+  <si>
+    <t>pick the lines</t>
+  </si>
+  <si>
+    <t>sed 12,18d file</t>
+  </si>
+  <si>
+    <t>to delete the lines from 12 to 18</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>sed G file</t>
+  </si>
+  <si>
+    <t>new line for each line</t>
+  </si>
+  <si>
+    <t>to replace all words</t>
+  </si>
+  <si>
+    <t>sed 's/keyword/replaceword/' file</t>
+  </si>
+  <si>
+    <t>sed '7!s//keyword/replaceword/' file</t>
+  </si>
+  <si>
+    <t>to replace all words except 7th line</t>
+  </si>
+  <si>
+    <t>to replace in vi editor</t>
+  </si>
+  <si>
+    <t>:%s/keyword/replaceword/ enter</t>
+  </si>
+  <si>
+    <t>groupadd</t>
+  </si>
+  <si>
+    <t>to add groups</t>
+  </si>
+  <si>
+    <t>groupadd name</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>full command</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>useradd</t>
+  </si>
+  <si>
+    <t>useradd name</t>
+  </si>
+  <si>
+    <t>to add users</t>
+  </si>
+  <si>
+    <t>id userName</t>
+  </si>
+  <si>
+    <t>to check user creation</t>
+  </si>
+  <si>
+    <t>Root user</t>
+  </si>
+  <si>
+    <t>cd /home/ and ls -l</t>
+  </si>
+  <si>
+    <t>to check the list of users</t>
+  </si>
+  <si>
+    <t>cat /etc/group</t>
+  </si>
+  <si>
+    <t>we can verify in this path</t>
+  </si>
+  <si>
+    <t>userdel</t>
+  </si>
+  <si>
+    <t>userdel -r name</t>
+  </si>
+  <si>
+    <t>to delete the user</t>
+  </si>
+  <si>
+    <t>groupdel</t>
+  </si>
+  <si>
+    <t>groupdel name</t>
+  </si>
+  <si>
+    <t>to delete group</t>
+  </si>
+  <si>
+    <t>usermod</t>
+  </si>
+  <si>
+    <t>usermod -G groupName userName</t>
+  </si>
+  <si>
+    <t>to assign users to group</t>
+  </si>
+  <si>
+    <t>grep userName /etc/group</t>
+  </si>
+  <si>
+    <t>to verify the group &amp; user details</t>
+  </si>
+  <si>
+    <t>chgrp -R groupName userName</t>
+  </si>
+  <si>
+    <t>to change group of the user</t>
+  </si>
+  <si>
+    <t>spiderman:x:1000:1000::/home/spiderman:/bin/bash</t>
+  </si>
+  <si>
+    <t>to see the user details</t>
+  </si>
+  <si>
+    <t>Name:password:userID:GroupID:Description:path:Shell of the user used</t>
+  </si>
+  <si>
+    <t>spiderman:x:1000:</t>
+  </si>
+  <si>
+    <t>superheros:x:1001:spiderman</t>
+  </si>
+  <si>
+    <t>cat /etc/passwd</t>
+  </si>
+  <si>
+    <t>to see the group details</t>
+  </si>
+  <si>
+    <t>userName:password:userID:</t>
+  </si>
+  <si>
+    <t>groupName:password:groupIS:userName associated with it</t>
+  </si>
+  <si>
+    <t>cat /etc/shadow</t>
+  </si>
+  <si>
+    <t>to see the details of user</t>
+  </si>
+  <si>
+    <t>su - userName</t>
+  </si>
+  <si>
+    <t>to switch the other user</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>to come out of that user</t>
+  </si>
+  <si>
+    <t>visudo</t>
+  </si>
+  <si>
+    <t>to view the sudo file</t>
   </si>
 </sst>
 </file>
@@ -1295,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132:XFD132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3060,138 +3382,574 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="5"/>
       <c r="B1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1" s="8"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="8"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="B15" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3268,4 +4026,233 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" s="1" customFormat="1">
+      <c r="B1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="C3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="C4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="C6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8" t="s">
+        <v>372</v>
+      </c>
+      <c r="E8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D10" t="s">
+        <v>375</v>
+      </c>
+      <c r="E10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D12" t="s">
+        <v>378</v>
+      </c>
+      <c r="E12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="C13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
+        <v>381</v>
+      </c>
+      <c r="D15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>388</v>
+      </c>
+      <c r="D17" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="C18" t="s">
+        <v>383</v>
+      </c>
+      <c r="D18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>368</v>
+      </c>
+      <c r="D20" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="C21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D21" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="C22" t="s">
+        <v>387</v>
+      </c>
+      <c r="D22" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>392</v>
+      </c>
+      <c r="D24" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>394</v>
+      </c>
+      <c r="D27" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" t="s">
+        <v>396</v>
+      </c>
+      <c r="D29" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>398</v>
+      </c>
+      <c r="D31" t="s">
+        <v>399</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>